--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/Bypakke Vestfoldbyene/Buss CSV_text/Vestfold/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{F5D301E2-2EEC-49A3-AFD8-52409AD86408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C011F4B9-F797-4558-A868-97508F2D42D0}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{F5D301E2-2EEC-49A3-AFD8-52409AD86408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB7BCBB7-BA14-4D6F-811C-B4DDFC3E559F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7F85668-ABD6-4015-AAC3-D5E6A4E1AB75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>trafficData</t>
   </si>
@@ -93,13 +93,25 @@
   </si>
   <si>
     <t>Kjøretøylengde</t>
+  </si>
+  <si>
+    <t>trafficData1</t>
+  </si>
+  <si>
+    <t>16644V1175490</t>
+  </si>
+  <si>
+    <t>Elveveien (v/Esso)</t>
+  </si>
+  <si>
+    <t>trafficData2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +124,18 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,9 +158,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,9 +180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,7 +220,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -301,7 +326,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -451,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE14B35F-3102-469F-89D8-38418A8CF7D8}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,10 +601,65 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2024</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>1662</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2024</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>1346</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{F5D301E2-2EEC-49A3-AFD8-52409AD86408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB7BCBB7-BA14-4D6F-811C-B4DDFC3E559F}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{F5D301E2-2EEC-49A3-AFD8-52409AD86408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C86053-670E-41F9-931F-564E8DF93ADC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7F85668-ABD6-4015-AAC3-D5E6A4E1AB75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>trafficData</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>trafficData2</t>
+  </si>
+  <si>
+    <t>trafficData3</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE14B35F-3102-469F-89D8-38418A8CF7D8}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,6 +661,35 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2025</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1448</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{F5D301E2-2EEC-49A3-AFD8-52409AD86408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C86053-670E-41F9-931F-564E8DF93ADC}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{F5D301E2-2EEC-49A3-AFD8-52409AD86408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{541E77F8-B11E-4F8B-8CE0-C6A2A4BCDA11}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7F85668-ABD6-4015-AAC3-D5E6A4E1AB75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>trafficData</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>trafficData3</t>
+  </si>
+  <si>
+    <t>trafficData4</t>
   </si>
 </sst>
 </file>
@@ -479,13 +482,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE14B35F-3102-469F-89D8-38418A8CF7D8}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -687,6 +695,35 @@
         <v>100</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2025</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1520</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{F5D301E2-2EEC-49A3-AFD8-52409AD86408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{541E77F8-B11E-4F8B-8CE0-C6A2A4BCDA11}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{F5D301E2-2EEC-49A3-AFD8-52409AD86408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFCF6623-73FA-4BD6-9BDF-CE77CFAD304B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7F85668-ABD6-4015-AAC3-D5E6A4E1AB75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7F85668-ABD6-4015-AAC3-D5E6A4E1AB75}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>trafficData</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>trafficData4</t>
+  </si>
+  <si>
+    <t>trafficData5</t>
   </si>
 </sst>
 </file>
@@ -482,20 +485,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE14B35F-3102-469F-89D8-38418A8CF7D8}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -524,7 +527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -640,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -669,7 +672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -698,7 +701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -724,6 +727,35 @@
         <v>100</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2025</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1611</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{F5D301E2-2EEC-49A3-AFD8-52409AD86408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFCF6623-73FA-4BD6-9BDF-CE77CFAD304B}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{F5D301E2-2EEC-49A3-AFD8-52409AD86408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79843249-D40C-40EE-99C6-43B1AED3EC2C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7F85668-ABD6-4015-AAC3-D5E6A4E1AB75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>trafficData</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>trafficData5</t>
+  </si>
+  <si>
+    <t>trafficData6</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE14B35F-3102-469F-89D8-38418A8CF7D8}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,6 +762,35 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2025</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>1671</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
